--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,13 +106,13 @@
     <t>185387006</t>
   </si>
   <si>
-    <t>SNOMED - New patient consultation (procedure)</t>
+    <t>New patient consultation (procedure)</t>
   </si>
   <si>
     <t>309037001</t>
   </si>
   <si>
-    <t>SNOMED - Transfer status (finding)</t>
+    <t>Transfer status (finding)</t>
   </si>
   <si>
     <t/>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Patient Type at " r:id="rId5" sheetId="3"/>
+    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:34:08+00:00</t>
+    <t>2023-02-18T15:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,12 @@
     <t>Transfer status (finding)</t>
   </si>
   <si>
+    <t>182837001</t>
+  </si>
+  <si>
+    <t>Restart of medication (procedure)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -124,13 +130,13 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
-  </si>
-  <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/CodeSystem/cs-patient-enrollment-type</t>
+    <t>LA6505-7</t>
+  </si>
+  <si>
+    <t>PMTCT</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,15 +442,23 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -466,28 +480,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:11:10+00:00</t>
+    <t>2023-02-18T15:16:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:16:43+00:00</t>
+    <t>2023-02-20T07:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:17:54+00:00</t>
+    <t>2023-02-20T07:28:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:28:36+00:00</t>
+    <t>2023-02-20T07:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:46:41+00:00</t>
+    <t>2023-02-20T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:47:29+00:00</t>
+    <t>2023-02-20T08:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:02:38+00:00</t>
+    <t>2023-02-20T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T08:12:47+00:00</t>
+    <t>2023-02-20T09:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:24+00:00</t>
+    <t>2023-02-20T09:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T09:50:37+00:00</t>
+    <t>2023-02-27T06:00:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:00:31+00:00</t>
+    <t>2023-02-27T06:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:07:40+00:00</t>
+    <t>2023-02-27T06:39:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:39:33+00:00</t>
+    <t>2023-02-27T06:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:55:00+00:00</t>
+    <t>2023-02-27T11:09:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:09:18+00:00</t>
+    <t>2023-02-27T12:02:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:02:46+00:00</t>
+    <t>2023-02-27T12:36:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:36:36+00:00</t>
+    <t>2023-02-27T13:37:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:37:14+00:00</t>
+    <t>2023-02-27T13:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:39:32+00:00</t>
+    <t>2023-02-28T10:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:46:33+00:00</t>
+    <t>2023-02-28T10:52:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:52:31+00:00</t>
+    <t>2023-03-01T07:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:03+00:00</t>
+    <t>2023-03-01T07:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:12:59+00:00</t>
+    <t>2023-03-01T07:50:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:50:24+00:00</t>
+    <t>2023-03-01T07:55:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T07:55:50+00:00</t>
+    <t>2023-03-01T08:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:26:46+00:00</t>
+    <t>2023-03-02T06:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:00:15+00:00</t>
+    <t>2023-03-02T06:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:01:33+00:00</t>
+    <t>2023-03-02T06:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:26+00:00</t>
+    <t>2023-03-02T06:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:25:57+00:00</t>
+    <t>2023-03-03T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/Richard/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:40:41+00:00</t>
+    <t>2023-03-03T14:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
